--- a/cases/verification.xlsx
+++ b/cases/verification.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdawn/work/siren/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16AB0EB-F9A6-0549-992A-5D2C9ED3242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8063AC0-7E18-1B4E-B47A-B0F05E7A4B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="2180" windowWidth="20720" windowHeight="16760" activeTab="3" xr2:uid="{227EF46E-FEF9-B242-B237-F76979D5622F}"/>
+    <workbookView xWindow="10880" yWindow="1580" windowWidth="19360" windowHeight="16760" activeTab="3" xr2:uid="{227EF46E-FEF9-B242-B237-F76979D5622F}"/>
   </bookViews>
   <sheets>
     <sheet name="tworeg" sheetId="1" r:id="rId1"/>
     <sheet name="tworeg_nonuniform" sheetId="3" r:id="rId2"/>
     <sheet name="twogroup" sheetId="5" r:id="rId3"/>
-    <sheet name="analyticp3" sheetId="8" r:id="rId4"/>
-    <sheet name="URRd-H2Ob_1-2-0-ISLC" sheetId="6" r:id="rId5"/>
+    <sheet name="analytic_p3" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId5"/>
+    <sheet name="URRd-H2Ob_1-2-0-ISLC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -216,7 +217,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
     <numFmt numFmtId="167" formatCode="0.000000E+00"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -266,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -275,9 +276,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1188,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3574692D-6D8F-3244-BBBE-F97D27125A20}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2668,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A6AD81-6144-0F47-BAAF-7BF3223AE461}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M44" sqref="F30:M44"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2706,13 +2706,15 @@
         <f>(PI()/M1)^2</f>
         <v>9.8696044010893589E-4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="5"/>
+      <c r="Q2" t="s">
         <v>42</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <f>-(2/15)*(1/C3)*M2/((11/21)*(1/C3)*M2+C3)</f>
         <v>-1.2512597188551048E-2</v>
       </c>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2730,10 +2732,11 @@
       <c r="L3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <f>C5/((1/3)*(1/C3)*M2+C4)</f>
         <v>0.97182975234179958</v>
       </c>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2745,16 +2748,17 @@
       <c r="C4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="10">
-        <f>C5/((1/3)*(1/C3)*M2+(2/3)*(1/C3)*M2*P2+C4)</f>
+      <c r="M4" s="9">
+        <f>C5/((1/3)*(1/C3)*M2+(2/3)*(1/C3)*M2*R2+C4)</f>
         <v>0.97966811065395543</v>
       </c>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2773,6 +2777,8 @@
         <f>(M3-M4)*100000</f>
         <v>-783.83583121558468</v>
       </c>
+      <c r="O5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2786,7 +2792,7 @@
         <f>1/(3*C3)</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2802,7 +2808,8 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="N8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2866,6 +2873,10 @@
         <f>C8-C10</f>
         <v>9.2999999999999999E-2</v>
       </c>
+      <c r="O13">
+        <f>11/21*(1/C3)</f>
+        <v>5.2380952380952381</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2970,7 +2981,7 @@
       <c r="B18" s="3">
         <v>-61.7440649999999</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="1">
         <f>B17/B18</f>
         <v>3.9982636873681772</v>
       </c>
@@ -3022,7 +3033,7 @@
       <c r="B19" s="3">
         <v>-15.4376789999999</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="1">
         <f t="shared" ref="C19:C27" si="0">B18/B19</f>
         <v>3.9995691709874457</v>
       </c>
@@ -3094,7 +3105,7 @@
       <c r="B20" s="3">
         <v>-3.85952299999999</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>3.999892991957799</v>
       </c>
@@ -3166,7 +3177,7 @@
       <c r="B21" s="3">
         <v>-0.96488700000000005</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>3.9999740902302445</v>
       </c>
@@ -3238,7 +3249,7 @@
       <c r="B22" s="3">
         <v>-0.24122199999999999</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>3.9999958544411376</v>
       </c>
@@ -3310,7 +3321,7 @@
       <c r="B23" s="3">
         <v>-6.0304999999999997E-2</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>4.0000331647458749</v>
       </c>
@@ -3382,7 +3393,7 @@
       <c r="B24" s="3">
         <v>-1.5077E-2</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>3.9998010214233597</v>
       </c>
@@ -3454,7 +3465,7 @@
       <c r="B25" s="3">
         <v>-3.7690000000000002E-3</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>4.0002653223666753</v>
       </c>
@@ -3526,7 +3537,7 @@
       <c r="B26" s="3">
         <v>-9.3599999999999998E-4</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>4.0267094017094021</v>
       </c>
@@ -3598,7 +3609,7 @@
       <c r="B27" s="3">
         <v>-2.8400000000000002E-4</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>3.2957746478873235</v>
       </c>
@@ -3895,6 +3906,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032B1582-F8D1-DE40-88A3-4F5BF74C2267}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832EA03D-32C4-0D44-8A79-F6CE86DBA5EC}">
   <dimension ref="A1"/>
   <sheetViews>
